--- a/加速器/24.4论文整理.xlsx
+++ b/加速器/24.4论文整理.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papers\24\24_2\加速器\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8281F8F-E29B-4941-B7A7-5675FAFF35BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,110 +30,427 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CXL-PNM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存架构、对推理加速器的控制架构、软件栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3层IR抽象，适应于FPGA平台的编译器</t>
   </si>
   <si>
     <t>ASADI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3层IR抽象，适应于FPGA平台的编译器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>稀疏attention的算法设计和加速器设计，DIA压缩具有对角线稀疏特性的数据，in-situ计算范式的ReRAM加速器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FIGNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基于int单元构建的加速器，可以达到FPU相同的数值精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HotTiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>针对异质稀疏矩阵乘的加速：设计了多种Pes来支持不同稀疏模式的矩阵乘法，并构建预测稀疏模式的分析工具，可以针对计算密集负载，访存密集型稀疏负载进行加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LUTein</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bit-slice架构无法再稀疏运算中的功耗问题，通过在硬件单元之间共享数据解决数据操作过多的问题，脉冲数据路径啦利用PE间的数据复用和slice级稀疏性，构建相应的ISA来减少重复指令读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Revet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>让thread程序能够在vRDA上跑的编译器，RDA是数据流可重构的加速器，vRDA另外采用了矢量化技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Smart-Infinity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在storage-offloaded训练技术中，用host存储作为扩展的存储层级，但存储带宽是该技术的瓶颈。  --》使用近存处理解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AttAcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优化KV cache的访存，基于PIM器件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,31 +458,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -179,27 +784,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13C90A4-4AD5-4C83-B27D-FE6AAE2F22E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409700" y="400050"/>
-          <a:ext cx="5296639" cy="4039164"/>
+          <a:off x="1912620" y="389890"/>
+          <a:ext cx="5016500" cy="3926840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -289,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -463,29 +1062,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1238938053097" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -501,18 +1095,18 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -520,7 +1114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -528,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -536,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -544,7 +1138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -552,7 +1146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -561,8 +1155,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/加速器/24.4论文整理.xlsx
+++ b/加速器/24.4论文整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papers\24\24_2\加速器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82F76E-12E6-4E34-B5EE-2C7D1705CCF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603073F8-C271-40F6-8874-7159682D5566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>CXL-PNM</t>
   </si>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>利用云端可抢占的GPU实例来降低LLM服务的成本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>opensource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -706,14 +714,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D402709C-5826-4468-BEB3-70397D968E11}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
@@ -764,6 +780,9 @@
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -771,6 +790,9 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
